--- a/data/product_data.xlsx
+++ b/data/product_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Product Name</t>
   </si>
@@ -28,37 +28,61 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Apple iPhone</t>
-  </si>
-  <si>
-    <t>13 Pro</t>
-  </si>
-  <si>
-    <t>Graphite</t>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Galaxy A14 5G</t>
+  </si>
+  <si>
+    <t>Black</t>
   </si>
   <si>
     <t>Phone</t>
   </si>
   <si>
-    <t>Acer Iconia</t>
-  </si>
-  <si>
-    <t>Tab iM10-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Tablet</t>
-  </si>
-  <si>
-    <t>Dell Inspiron</t>
-  </si>
-  <si>
-    <t>15 5000</t>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>11 Lite</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Apple Iphone</t>
+  </si>
+  <si>
+    <t>Motorola Edge</t>
+  </si>
+  <si>
+    <t>50 fusion</t>
+  </si>
+  <si>
+    <t>Marshmallow Blue</t>
+  </si>
+  <si>
+    <t>Apple Macbook</t>
+  </si>
+  <si>
+    <t>Air m2</t>
   </si>
   <si>
     <t>Laptop</t>
+  </si>
+  <si>
+    <t>Lenovo IdeaPad</t>
+  </si>
+  <si>
+    <t>Slim 1 AMD Ryzen 5 Hexa Core 5500U</t>
+  </si>
+  <si>
+    <t>Canon</t>
+  </si>
+  <si>
+    <t>MF272dw</t>
+  </si>
+  <si>
+    <t>Printer</t>
   </si>
 </sst>
 </file>
@@ -75,26 +99,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFfff2cc"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFfff2cc"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFfff2cc"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFfff2cc"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFfff2cc"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -116,16 +160,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -149,31 +205,31 @@
         <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr lastClr="ffffff" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -429,23 +485,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="62.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -456,45 +512,101 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="4">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
